--- a/이해와 관찰_자료.xlsx
+++ b/이해와 관찰_자료.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lydia/Desktop/02 실습참고자료/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29947C0-6BE4-F64F-9416-84285AD70181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08F8653-9CE6-4D72-9248-CE6B4CE2322C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="2920" windowWidth="31760" windowHeight="19860" activeTab="2" xr2:uid="{A1DC9B4D-AA26-B44F-9DB3-36E0F3BCBD77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A1DC9B4D-AA26-B44F-9DB3-36E0F3BCBD77}"/>
   </bookViews>
   <sheets>
     <sheet name="개발의 배경" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -279,11 +278,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>구체적요 요구사항</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>task2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구체적 요구사항</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +290,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -380,17 +379,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -402,9 +395,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -414,7 +404,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -761,112 +751,112 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" customWidth="1"/>
+    <col min="7" max="7" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="10" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="D16" s="11" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D16" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="8" customFormat="1">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="2" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G18" t="s">
@@ -876,15 +866,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="2" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
       <c r="G19" t="s">
         <v>27</v>
       </c>
@@ -892,7 +882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -902,14 +892,14 @@
       <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>32</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -919,35 +909,35 @@
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>33</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>3</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>0</v>
       </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -961,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>5</v>
       </c>
@@ -975,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>6</v>
       </c>
@@ -989,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>7</v>
       </c>
@@ -1003,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>8</v>
       </c>
@@ -1017,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>9</v>
       </c>
@@ -1031,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>10</v>
       </c>
@@ -1045,22 +1035,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>11</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="2"/>
       <c r="E30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>12</v>
       </c>
@@ -1071,22 +1061,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>13</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="2"/>
       <c r="E32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>14</v>
       </c>
@@ -1097,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>15</v>
       </c>
@@ -1108,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>16</v>
       </c>
@@ -1119,22 +1109,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>17</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="2"/>
       <c r="E36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>18</v>
       </c>
@@ -1145,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>19</v>
       </c>
@@ -1156,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>20</v>
       </c>
@@ -1167,125 +1157,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>21</v>
       </c>
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="1:5" hidden="1">
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>22</v>
       </c>
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="1:5" hidden="1">
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>23</v>
       </c>
-      <c r="D42"/>
-    </row>
-    <row r="43" spans="1:5" hidden="1">
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>24</v>
       </c>
-      <c r="D43"/>
-    </row>
-    <row r="44" spans="1:5" hidden="1">
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>25</v>
       </c>
-      <c r="D44"/>
-    </row>
-    <row r="45" spans="1:5" hidden="1">
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>26</v>
       </c>
-      <c r="D45"/>
-    </row>
-    <row r="46" spans="1:5" hidden="1">
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>27</v>
       </c>
-      <c r="D46"/>
-    </row>
-    <row r="47" spans="1:5" hidden="1">
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>28</v>
       </c>
-      <c r="D47"/>
-    </row>
-    <row r="48" spans="1:5" hidden="1">
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>29</v>
       </c>
-      <c r="D48"/>
-    </row>
-    <row r="49" spans="1:4" hidden="1">
+    </row>
+    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>30</v>
       </c>
-      <c r="D49"/>
-    </row>
-    <row r="50" spans="1:4" hidden="1">
+    </row>
+    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>31</v>
       </c>
-      <c r="D50"/>
-    </row>
-    <row r="51" spans="1:4" hidden="1">
+    </row>
+    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>32</v>
       </c>
-      <c r="D51"/>
-    </row>
-    <row r="52" spans="1:4" hidden="1">
+    </row>
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>33</v>
       </c>
-      <c r="D52"/>
-    </row>
-    <row r="53" spans="1:4" hidden="1">
+    </row>
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>34</v>
       </c>
-      <c r="D53"/>
-    </row>
-    <row r="54" spans="1:4" hidden="1">
+    </row>
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>35</v>
       </c>
-      <c r="D54"/>
-    </row>
-    <row r="55" spans="1:4" hidden="1">
+    </row>
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>36</v>
       </c>
-      <c r="D55"/>
-    </row>
-    <row r="56" spans="1:4" hidden="1">
+    </row>
+    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>37</v>
       </c>
-      <c r="D56"/>
-    </row>
-    <row r="57" spans="1:4" hidden="1">
+    </row>
+    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>38</v>
       </c>
-      <c r="D57"/>
-    </row>
-    <row r="58" spans="1:4" hidden="1">
+    </row>
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>39</v>
       </c>
-      <c r="D58"/>
-    </row>
-    <row r="59" spans="1:4" hidden="1">
+    </row>
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>40</v>
       </c>
-      <c r="D59"/>
     </row>
   </sheetData>
   <autoFilter ref="A17:E59" xr:uid="{DAF546DF-BB58-CE44-8960-FE3494B22D23}">
@@ -1308,31 +1278,31 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="2:6">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="2:6">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>51</v>
       </c>
@@ -1340,22 +1310,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>57</v>
       </c>
@@ -1363,22 +1333,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>58</v>
       </c>
@@ -1386,17 +1356,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>54</v>
       </c>
@@ -1411,19 +1381,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2341727-0E08-2942-9892-159A3D8691EE}">
   <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="47.26953125" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>42</v>
       </c>
@@ -1437,7 +1407,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>45</v>
       </c>
@@ -1448,17 +1418,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
         <v>61</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
